--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3364.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3364.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.221886009592449</v>
+        <v>0.69843989610672</v>
       </c>
       <c r="B1">
-        <v>2.588956258414419</v>
+        <v>3.397899866104126</v>
       </c>
       <c r="C1">
-        <v>5.359181082851694</v>
+        <v>2.802345514297485</v>
       </c>
       <c r="D1">
-        <v>2.674740004151392</v>
+        <v>2.318350553512573</v>
       </c>
       <c r="E1">
-        <v>1.174274070309125</v>
+        <v>2.078043460845947</v>
       </c>
     </row>
   </sheetData>
